--- a/results/ML HOF.xlsx
+++ b/results/ML HOF.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23801"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\conno\OMSCS\VIP 6603\reference_material-master\Lectures\Lecture_4_ML\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\conno\OMSCS\VIP 6603\AAD\results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DF2252D-EBA3-40CD-834A-954C9E1B0CA9}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CC64D5D-3EDD-446A-801B-9C705435BF8A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-2940" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="13">
   <si>
     <t>David</t>
   </si>
@@ -48,10 +48,22 @@
     <t>0.25 test size</t>
   </si>
   <si>
-    <t>0.33 test size</t>
-  </si>
-  <si>
     <t>Dhruv</t>
+  </si>
+  <si>
+    <t>Algorithm</t>
+  </si>
+  <si>
+    <t>Decision Tree</t>
+  </si>
+  <si>
+    <t>Nerual Network</t>
+  </si>
+  <si>
+    <t>KNN</t>
+  </si>
+  <si>
+    <t>K-Nearest Neighbors</t>
   </si>
 </sst>
 </file>
@@ -90,13 +102,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -377,25 +388,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E7"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="4" max="4" width="18.81640625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B1" s="2" t="s">
         <v>6</v>
       </c>
       <c r="C1" s="2"/>
-      <c r="D1" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E1" s="2"/>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B2" t="s">
         <v>2</v>
       </c>
@@ -403,13 +413,10 @@
         <v>1</v>
       </c>
       <c r="D2" t="s">
-        <v>2</v>
-      </c>
-      <c r="E2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -419,10 +426,11 @@
       <c r="C3" s="1">
         <v>0.43419999999999997</v>
       </c>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="D3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -432,16 +440,13 @@
       <c r="C4" s="1">
         <v>0.4078947</v>
       </c>
-      <c r="D4" s="1">
-        <v>6.8099999999999994E-2</v>
-      </c>
-      <c r="E4" s="1">
-        <v>0.43269999999999997</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="D4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B5" s="1">
         <v>6.8029999999999993E-2</v>
@@ -449,10 +454,11 @@
       <c r="C5" s="1">
         <v>0.36842000000000003</v>
       </c>
-      <c r="D5" s="3"/>
-      <c r="E5" s="3"/>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="D5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -462,14 +468,11 @@
       <c r="C6" s="1">
         <v>0.355263</v>
       </c>
-      <c r="D6" s="1">
-        <v>0.12570000000000001</v>
-      </c>
-      <c r="E6" s="1">
-        <v>0.27879999999999999</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="D6" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>3</v>
       </c>
@@ -479,17 +482,13 @@
       <c r="C7" s="1">
         <v>0.16</v>
       </c>
-      <c r="D7" s="1">
-        <v>0.21</v>
-      </c>
-      <c r="E7" s="1">
-        <v>0.17</v>
+      <c r="D7" t="s">
+        <v>9</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="1">
     <mergeCell ref="B1:C1"/>
-    <mergeCell ref="D1:E1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
